--- a/GA_case1.xlsx
+++ b/GA_case1.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiangCJ\Documents\GitHub\Hybrid-GA-and-PSO-for-JSSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87DCF64-E11C-4C74-A3FB-6AE7152E1468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE431A-E611-47D5-810F-E7A51B8EEB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>次數</t>
   </si>
@@ -206,12 +217,19 @@
   </si>
   <si>
     <t>1.9375</t>
+  </si>
+  <si>
+    <t>成功比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,8 +266,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -552,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -584,11 +604,15 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>3.734375</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -598,11 +622,13 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -612,11 +638,15 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>4.03125</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -626,11 +656,16 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>3.78125</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -640,11 +675,15 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>3.734375</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -654,11 +693,13 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -668,11 +709,14 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -682,11 +726,15 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>1.953125</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -696,11 +744,13 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -710,11 +760,15 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>2.53125</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -724,11 +778,15 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>0.703125</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -738,11 +796,13 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -752,11 +812,15 @@
       <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>4.359375</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -766,11 +830,13 @@
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -780,11 +846,15 @@
       <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>5.84375</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -794,11 +864,15 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>3.203125</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -808,11 +882,15 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>4.9375</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -822,11 +900,15 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>1.609375</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -836,11 +918,13 @@
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -850,11 +934,15 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>4.5625</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -864,11 +952,15 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -878,11 +970,13 @@
       <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -892,11 +986,15 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>0.421875</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -906,11 +1004,13 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -920,11 +1020,15 @@
       <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>5.453125</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -934,11 +1038,13 @@
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -948,11 +1054,15 @@
       <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>4.296875</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -962,11 +1072,13 @@
       <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -976,11 +1088,13 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -990,9 +1104,33 @@
       <c r="C31" t="s">
         <v>20</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E31" s="2">
+        <v>1.9375</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <f>AVERAGE(E2:E31)</f>
+        <v>3.3107638888888888</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33">
+        <f>18/30</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
